--- a/CrowdSourcingStudy/Results/calculs_statistics.xlsx
+++ b/CrowdSourcingStudy/Results/calculs_statistics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="390" windowWidth="19875" windowHeight="7200" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="390" windowWidth="19875" windowHeight="7200" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Dominant" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="28">
   <si>
     <t xml:space="preserve">Principe 1 </t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t xml:space="preserve">T student (agent is flexible) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T student (agent is being leaded) </t>
+  </si>
+  <si>
+    <t>T student (agent leads the dialogue)</t>
   </si>
 </sst>
 </file>
@@ -538,6 +544,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Dominant</c:v>
+          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
@@ -584,6 +593,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Peer</c:v>
+          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
@@ -630,6 +642,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Submissive</c:v>
+          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
@@ -784,6 +799,13 @@
       </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -975,7 +997,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -994,6 +1015,13 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1050,6 +1078,13 @@
       </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1260,6 +1295,13 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1300,6 +1342,13 @@
       </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1491,7 +1540,13 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1510,6 +1565,14 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1550,6 +1613,13 @@
       </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1760,6 +1830,13 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -4297,8 +4374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="J13" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4540,6 +4617,10 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="e">
+        <f>LOI.NORMALE.</f>
+        <v>#NAME?</v>
+      </c>
       <c r="H14" s="5">
         <v>4</v>
       </c>
@@ -4709,8 +4790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C28"/>
+    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5120,8 +5201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5440,7 +5521,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -5477,7 +5558,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>

--- a/CrowdSourcingStudy/Results/calculs_statistics.xlsx
+++ b/CrowdSourcingStudy/Results/calculs_statistics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="390" windowWidth="19875" windowHeight="7200" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="450" windowWidth="19440" windowHeight="7140" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Dominant" sheetId="1" r:id="rId1"/>
@@ -112,9 +112,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -203,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -217,26 +217,29 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -283,6 +286,13 @@
       </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -297,6 +307,16 @@
           <c:tx>
             <c:v>Dominant</c:v>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltVert">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
@@ -331,7 +351,7 @@
             <c:numRef>
               <c:f>principe1!$B$18</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>2.3333333333333335</c:v>
@@ -346,6 +366,11 @@
           <c:tx>
             <c:v>Peer</c:v>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
@@ -380,7 +405,7 @@
             <c:numRef>
               <c:f>principe1!$H$18</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>3.2142857142857144</c:v>
@@ -395,6 +420,16 @@
           <c:tx>
             <c:v>Submissive</c:v>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="smCheck">
+              <a:fgClr>
+                <a:schemeClr val="accent3"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
@@ -429,7 +464,7 @@
             <c:numRef>
               <c:f>principe1!$E$18</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>3.4444444444444446</c:v>
@@ -447,11 +482,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="93291520"/>
-        <c:axId val="990357760"/>
+        <c:axId val="937135616"/>
+        <c:axId val="939786816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93291520"/>
+        <c:axId val="937135616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -460,7 +495,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="990357760"/>
+        <c:crossAx val="939786816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -468,20 +503,23 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="990357760"/>
+        <c:axId val="939786816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93291520"/>
+        <c:crossAx val="937135616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -493,6 +531,13 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -533,6 +578,13 @@
       </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -547,6 +599,16 @@
           <c:tx>
             <c:v>Dominant</c:v>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltVert">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
@@ -581,7 +643,7 @@
             <c:numRef>
               <c:f>principe1!$C$18</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>4.5555555555555554</c:v>
@@ -630,7 +692,7 @@
             <c:numRef>
               <c:f>principe1!$I$18</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>3.1428571428571428</c:v>
@@ -645,6 +707,16 @@
           <c:tx>
             <c:v>Submissive</c:v>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="smCheck">
+              <a:fgClr>
+                <a:schemeClr val="accent3"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
@@ -679,7 +751,7 @@
             <c:numRef>
               <c:f>principe1!$F$18</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1.8888888888888888</c:v>
@@ -697,11 +769,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="963040256"/>
-        <c:axId val="958049088"/>
+        <c:axId val="939898368"/>
+        <c:axId val="939789120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="963040256"/>
+        <c:axId val="939898368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -710,7 +782,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="958049088"/>
+        <c:crossAx val="939789120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -718,20 +790,23 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="958049088"/>
+        <c:axId val="939789120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="963040256"/>
+        <c:crossAx val="939898368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -743,6 +818,13 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -792,7 +874,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>demanding</a:t>
+              <a:t>unflexible</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -820,6 +902,16 @@
           <c:tx>
             <c:v>Dominant</c:v>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltVert">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
@@ -854,7 +946,7 @@
             <c:numRef>
               <c:f>principe2!$B$18</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>3.5555555555555554</c:v>
@@ -903,7 +995,7 @@
             <c:numRef>
               <c:f>principe2!$H$18</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
@@ -918,6 +1010,16 @@
           <c:tx>
             <c:v>Submissive</c:v>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="smCheck">
+              <a:fgClr>
+                <a:schemeClr val="accent3"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
@@ -952,7 +1054,7 @@
             <c:numRef>
               <c:f>principe2!$E$18</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
@@ -970,11 +1072,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="73795072"/>
-        <c:axId val="89857344"/>
+        <c:axId val="939900416"/>
+        <c:axId val="939791424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73795072"/>
+        <c:axId val="939900416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -983,7 +1085,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89857344"/>
+        <c:crossAx val="939791424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -991,19 +1093,23 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89857344"/>
+        <c:axId val="939791424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73795072"/>
+        <c:crossAx val="939900416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1099,6 +1205,16 @@
           <c:tx>
             <c:v>Dominant</c:v>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltVert">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
@@ -1133,7 +1249,7 @@
             <c:numRef>
               <c:f>principe2!$C$18</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1.8888888888888888</c:v>
@@ -1182,7 +1298,7 @@
             <c:numRef>
               <c:f>principe2!$I$18</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>3.3571428571428572</c:v>
@@ -1197,6 +1313,16 @@
           <c:tx>
             <c:v>Submissive</c:v>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="smCheck">
+              <a:fgClr>
+                <a:schemeClr val="accent3"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
@@ -1231,7 +1357,7 @@
             <c:numRef>
               <c:f>principe2!$F$18</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>3.8888888888888888</c:v>
@@ -1249,11 +1375,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="963041280"/>
-        <c:axId val="90576512"/>
+        <c:axId val="952710144"/>
+        <c:axId val="939793728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="963041280"/>
+        <c:axId val="952710144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1262,7 +1388,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90576512"/>
+        <c:crossAx val="939793728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1270,21 +1396,30 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90576512"/>
+        <c:axId val="939793728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="963041280"/>
+        <c:crossAx val="952710144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.2"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -1340,7 +1475,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25176377952755913"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:ln>
@@ -1352,7 +1494,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.7905074365704287E-2"/>
+          <c:y val="0.14966427710895991"/>
+          <c:w val="0.72270669291338585"/>
+          <c:h val="0.82429830119446534"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1363,6 +1515,16 @@
           <c:tx>
             <c:v>Dominant</c:v>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltVert">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
@@ -1397,7 +1559,7 @@
             <c:numRef>
               <c:f>principe3!$B$18</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>4.4444444444444446</c:v>
@@ -1446,7 +1608,7 @@
             <c:numRef>
               <c:f>principe3!$H$18</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>3.4285714285714284</c:v>
@@ -1461,6 +1623,16 @@
           <c:tx>
             <c:v>Submissive</c:v>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="smCheck">
+              <a:fgClr>
+                <a:schemeClr val="accent3"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
@@ -1495,7 +1667,7 @@
             <c:numRef>
               <c:f>principe3!$E$18</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1.7777777777777777</c:v>
@@ -1513,11 +1685,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="89694720"/>
-        <c:axId val="1055811840"/>
+        <c:axId val="939899392"/>
+        <c:axId val="952813248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89694720"/>
+        <c:axId val="939899392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,7 +1698,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1055811840"/>
+        <c:crossAx val="952813248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1534,9 +1706,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1055811840"/>
+        <c:axId val="952813248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1547,13 +1721,15 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89694720"/>
+        <c:crossAx val="939899392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.2"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1606,7 +1782,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Agent is being leaded in the dialogue</a:t>
+              <a:t>Agent is being lead in the dialogue</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1634,6 +1810,16 @@
           <c:tx>
             <c:v>Dominant</c:v>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltVert">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
@@ -1668,7 +1854,7 @@
             <c:numRef>
               <c:f>principe3!$C$18</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1.7777777777777777</c:v>
@@ -1717,7 +1903,7 @@
             <c:numRef>
               <c:f>principe3!$I$18</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>3.2857142857142856</c:v>
@@ -1732,6 +1918,16 @@
           <c:tx>
             <c:v>Submissive</c:v>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="smCheck">
+              <a:fgClr>
+                <a:schemeClr val="accent3"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
@@ -1766,7 +1962,7 @@
             <c:numRef>
               <c:f>principe3!$F$18</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
@@ -1784,11 +1980,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="962808320"/>
-        <c:axId val="958049664"/>
+        <c:axId val="953286656"/>
+        <c:axId val="952815552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="962808320"/>
+        <c:axId val="953286656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1797,28 +1993,32 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="958049664"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="952815552"/>
+        <c:crossesAt val="0.1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="958049664"/>
+        <c:axId val="952815552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="962808320"/>
+        <c:crossAx val="953286656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1985,8 +2185,8 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
@@ -2345,28 +2545,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="B2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="9"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -2700,28 +2900,28 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="B2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="9"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -3003,28 +3203,28 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="C3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="9"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
@@ -3406,28 +3606,28 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="9"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -3688,28 +3888,28 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="B17" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="9"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
@@ -3970,28 +4170,28 @@
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="B33" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G34" s="9"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="20"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
@@ -4374,8 +4574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="J13" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="B10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4387,18 +4587,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="20"/>
+      <c r="E1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="H1" s="9" t="s">
+      <c r="F1" s="20"/>
+      <c r="H1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="9"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -4648,27 +4848,29 @@
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="22">
         <f>AVERAGE(B3:B11)</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="22">
         <f>AVERAGE(C3:C11)</f>
         <v>4.5555555555555554</v>
       </c>
-      <c r="E18" s="6">
+      <c r="D18" s="23"/>
+      <c r="E18" s="22">
         <f>AVERAGE(E3:E11)</f>
         <v>3.4444444444444446</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="22">
         <f>AVERAGE(F3:F11)</f>
         <v>1.8888888888888888</v>
       </c>
-      <c r="H18" s="6">
+      <c r="G18" s="23"/>
+      <c r="H18" s="22">
         <f>AVERAGE(H3:H16)</f>
         <v>3.2142857142857144</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="22">
         <f>AVERAGE(I3:I16)</f>
         <v>3.1428571428571428</v>
       </c>
@@ -4677,98 +4879,100 @@
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="24">
         <f>_xlfn.STDEV.S(E3:E11)</f>
         <v>1.1303883305208784</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="24">
         <f>_xlfn.STDEV.S(C3:C11)</f>
         <v>0.72648315725677948</v>
       </c>
-      <c r="E19" s="7">
+      <c r="D19" s="23"/>
+      <c r="E19" s="24">
         <f>_xlfn.STDEV.S(E3:E11)</f>
         <v>1.1303883305208784</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="24">
         <f>_xlfn.STDEV.S(F3:F11)</f>
         <v>0.60092521257733122</v>
       </c>
-      <c r="H19" s="7">
+      <c r="G19" s="23"/>
+      <c r="H19" s="24">
         <f>_xlfn.STDEV.S(H3:H16)</f>
         <v>1.0509022810878301</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="24">
         <f>_xlfn.STDEV.S(I3:I16)</f>
         <v>1.2314558524297641</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="14">
         <f>_xlfn.T.TEST(E3:E11,H3:H16,1,2)</f>
         <v>0.31185193594006344</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="18">
         <f>_xlfn.T.TEST(B3:B11,H3:H16,1,2)</f>
         <v>6.0941238473757771E-2</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="19">
         <f>_xlfn.T.TEST(B3:B11,E3:E11,1,1)</f>
         <v>0.11548952626811355</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+      <c r="A28" s="12">
         <f>_xlfn.T.TEST(I3:I16,F3:F11,1,3)</f>
         <v>1.9875154013558618E-3</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="17">
         <f>_xlfn.T.TEST(I3:I16,C3:C11,1,3)</f>
         <v>1.1837971532589467E-3</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="15">
         <f>_xlfn.T.TEST(C3:C11,F3:F11,1,1)</f>
         <v>4.8288396020589778E-5</v>
       </c>
@@ -4790,8 +4994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4800,18 +5004,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="20"/>
+      <c r="E1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="H1" s="9" t="s">
+      <c r="F1" s="20"/>
+      <c r="H1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="9"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -5057,129 +5261,129 @@
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="22">
         <f>AVERAGE(B3:B11)</f>
         <v>3.5555555555555554</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="22">
         <f>AVERAGE(C3:C11)</f>
         <v>1.8888888888888888</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="6">
+      <c r="D18" s="25"/>
+      <c r="E18" s="22">
         <f>AVERAGE(E3:E11)</f>
         <v>3</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="22">
         <f>AVERAGE(F3:F11)</f>
         <v>3.8888888888888888</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="6">
+      <c r="G18" s="25"/>
+      <c r="H18" s="22">
         <f>AVERAGE(H3:H16)</f>
         <v>3</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="22">
         <f>AVERAGE(I3:I16)</f>
         <v>3.3571428571428572</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="26">
         <f>_xlfn.STDEV.S(B3:B11)</f>
         <v>1.2360330811826108</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="26">
         <f>_xlfn.STDEV.S(C3:C11)</f>
         <v>1.2692955176439846</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="12">
+      <c r="D19" s="27"/>
+      <c r="E19" s="26">
         <f>_xlfn.STDEV.S(E3:E11)</f>
         <v>1.4142135623730951</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="26">
         <f>_xlfn.STDEV.S(F3:F11)</f>
         <v>1.0540925533894596</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="12">
+      <c r="G19" s="27"/>
+      <c r="H19" s="26">
         <f>_xlfn.STDEV.S(H3:H16)</f>
         <v>1.1766968108291043</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="26">
         <f t="shared" ref="I19" si="0">_xlfn.STDEV.S(I3:I16)</f>
         <v>1.1507283885330304</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="14">
         <f>_xlfn.T.TEST(E3:E11,H3:H16,1,2)</f>
         <v>0.5</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="18">
         <f>_xlfn.T.TEST(B3:B11,H3:H16,1,2)</f>
         <v>0.14534531908267415</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="19">
         <f>_xlfn.T.TEST(B3:B11,E3:E11,1,1)</f>
         <v>0.23928061949458768</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="A28" s="14">
         <f>_xlfn.T.TEST(I3:I16,F3:F11,1,3)</f>
         <v>0.13473145488755517</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="18">
         <f>_xlfn.T.TEST(I3:I16,C3:C11,1,3)</f>
         <v>6.3433293167398505E-3</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="18">
         <f>_xlfn.T.TEST(C3:C11,F3:F11,1,1)</f>
         <v>9.7881367023435438E-3</v>
       </c>
@@ -5201,25 +5405,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="20"/>
+      <c r="E1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="H1" s="9" t="s">
+      <c r="F1" s="20"/>
+      <c r="H1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="9"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -5465,27 +5669,29 @@
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="22">
         <f>AVERAGE(B3:B11)</f>
         <v>4.4444444444444446</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="22">
         <f>AVERAGE(C3:C11)</f>
         <v>1.7777777777777777</v>
       </c>
-      <c r="E18" s="6">
+      <c r="D18" s="23"/>
+      <c r="E18" s="22">
         <f>AVERAGE(E3:E11)</f>
         <v>1.7777777777777777</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="22">
         <f>AVERAGE(F3:F11)</f>
         <v>4</v>
       </c>
-      <c r="H18" s="6">
+      <c r="G18" s="23"/>
+      <c r="H18" s="22">
         <f t="shared" ref="H18:I18" si="0">AVERAGE(H3:H16)</f>
         <v>3.4285714285714284</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="22">
         <f t="shared" si="0"/>
         <v>3.2857142857142856</v>
       </c>
@@ -5494,96 +5700,98 @@
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="24">
         <f>_xlfn.STDEV.S(B3:B11)</f>
         <v>0.72648315725677948</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="24">
         <f>_xlfn.STDEV.S(C3:C11)</f>
         <v>0.66666666666666685</v>
       </c>
-      <c r="E19" s="7">
+      <c r="D19" s="23"/>
+      <c r="E19" s="24">
         <f>_xlfn.STDEV.S(E3:E11)</f>
         <v>0.66666666666666685</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="24">
         <f>_xlfn.STDEV.S(F3:F11)</f>
         <v>0.8660254037844386</v>
       </c>
-      <c r="H19" s="7">
+      <c r="G19" s="23"/>
+      <c r="H19" s="24">
         <f t="shared" ref="H19:I19" si="1">_xlfn.STDEV.S(H3:H16)</f>
         <v>1.1578684470436784</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="24">
         <f t="shared" si="1"/>
         <v>1.3259870882635918</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="A23" s="13">
         <f>_xlfn.T.TEST(E3:E11,H3:H16,1,2)</f>
         <v>4.4810175790642817E-4</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="18">
         <f>_xlfn.T.TEST(B3:B11,H3:H16,1,2)</f>
         <v>1.4566563833152678E-2</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="16">
         <f>_xlfn.T.TEST(B3:B11,E3:E11,1,1)</f>
         <v>1.5339332164550568E-4</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="A28" s="14">
         <f>_xlfn.T.TEST(I3:I16,F3:F11,1,3)</f>
         <v>6.6542359796992204E-2</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="17">
         <f>_xlfn.T.TEST(I3:I16,C3:C11,1,3)</f>
         <v>8.7479346968026897E-4</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="16">
         <f>_xlfn.T.TEST(C3:C11,F3:F11,1,1)</f>
         <v>1.4474460567230583E-4</v>
       </c>

--- a/CrowdSourcingStudy/Results/calculs_statistics.xlsx
+++ b/CrowdSourcingStudy/Results/calculs_statistics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="450" windowWidth="19440" windowHeight="7140" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="450" windowWidth="19440" windowHeight="7140" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Dominant" sheetId="1" r:id="rId1"/>
@@ -228,18 +228,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -284,7 +284,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:ln>
@@ -482,11 +481,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="937135616"/>
-        <c:axId val="939786816"/>
+        <c:axId val="960774656"/>
+        <c:axId val="960708608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="937135616"/>
+        <c:axId val="960774656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,7 +494,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="939786816"/>
+        <c:crossAx val="960708608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -503,7 +502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="939786816"/>
+        <c:axId val="960708608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -516,7 +515,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="937135616"/>
+        <c:crossAx val="960774656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -524,7 +523,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -576,7 +574,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:ln>
@@ -769,11 +766,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="939898368"/>
-        <c:axId val="939789120"/>
+        <c:axId val="960881152"/>
+        <c:axId val="960710912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="939898368"/>
+        <c:axId val="960881152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -782,7 +779,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="939789120"/>
+        <c:crossAx val="960710912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -790,7 +787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="939789120"/>
+        <c:axId val="960710912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -803,7 +800,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="939898368"/>
+        <c:crossAx val="960881152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -811,7 +808,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -870,11 +866,11 @@
             </a:r>
             <a:r>
               <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> </a:t>
+              <a:t> i</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>unflexible</a:t>
+              <a:t>nflexible</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1072,11 +1068,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="939900416"/>
-        <c:axId val="939791424"/>
+        <c:axId val="944606208"/>
+        <c:axId val="960713216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="939900416"/>
+        <c:axId val="944606208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1085,7 +1081,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="939791424"/>
+        <c:crossAx val="960713216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1093,7 +1089,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="939791424"/>
+        <c:axId val="960713216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -1105,7 +1101,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="939900416"/>
+        <c:crossAx val="944606208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1375,11 +1371,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="952710144"/>
-        <c:axId val="939793728"/>
+        <c:axId val="968925184"/>
+        <c:axId val="960715520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="952710144"/>
+        <c:axId val="968925184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1388,7 +1384,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="939793728"/>
+        <c:crossAx val="960715520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1396,7 +1392,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="939793728"/>
+        <c:axId val="960715520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -1408,7 +1404,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="952710144"/>
+        <c:crossAx val="968925184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1685,11 +1681,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="939899392"/>
-        <c:axId val="952813248"/>
+        <c:axId val="968927232"/>
+        <c:axId val="969098368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="939899392"/>
+        <c:axId val="968927232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,7 +1694,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="952813248"/>
+        <c:crossAx val="969098368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1706,7 +1702,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="952813248"/>
+        <c:axId val="969098368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -1725,7 +1721,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="939899392"/>
+        <c:crossAx val="968927232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1980,11 +1976,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="953286656"/>
-        <c:axId val="952815552"/>
+        <c:axId val="968928768"/>
+        <c:axId val="969100672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="953286656"/>
+        <c:axId val="968928768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1993,7 +1989,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="952815552"/>
+        <c:crossAx val="969100672"/>
         <c:crossesAt val="0.1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2001,7 +1997,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="952815552"/>
+        <c:axId val="969100672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -2014,7 +2010,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="953286656"/>
+        <c:crossAx val="968928768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2545,28 +2541,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="B2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="20"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -2900,28 +2896,28 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="B2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="20"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -3203,28 +3199,28 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="C3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="20"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
@@ -3606,28 +3602,28 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="20"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -3888,28 +3884,28 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="B17" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="20"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
@@ -4170,28 +4166,28 @@
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
+      <c r="B33" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G34" s="20"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="26"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
@@ -4587,18 +4583,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="E1" s="20" t="s">
+      <c r="C1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="H1" s="20" t="s">
+      <c r="F1" s="26"/>
+      <c r="H1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="20"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -4848,29 +4844,29 @@
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="20">
         <f>AVERAGE(B3:B11)</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="20">
         <f>AVERAGE(C3:C11)</f>
         <v>4.5555555555555554</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="22">
+      <c r="D18" s="21"/>
+      <c r="E18" s="20">
         <f>AVERAGE(E3:E11)</f>
         <v>3.4444444444444446</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="20">
         <f>AVERAGE(F3:F11)</f>
         <v>1.8888888888888888</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="22">
+      <c r="G18" s="21"/>
+      <c r="H18" s="20">
         <f>AVERAGE(H3:H16)</f>
         <v>3.2142857142857144</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="20">
         <f>AVERAGE(I3:I16)</f>
         <v>3.1428571428571428</v>
       </c>
@@ -4879,39 +4875,39 @@
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="22">
         <f>_xlfn.STDEV.S(E3:E11)</f>
         <v>1.1303883305208784</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="22">
         <f>_xlfn.STDEV.S(C3:C11)</f>
         <v>0.72648315725677948</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24">
+      <c r="D19" s="21"/>
+      <c r="E19" s="22">
         <f>_xlfn.STDEV.S(E3:E11)</f>
         <v>1.1303883305208784</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="22">
         <f>_xlfn.STDEV.S(F3:F11)</f>
         <v>0.60092521257733122</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24">
+      <c r="G19" s="21"/>
+      <c r="H19" s="22">
         <f>_xlfn.STDEV.S(H3:H16)</f>
         <v>1.0509022810878301</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="22">
         <f>_xlfn.STDEV.S(I3:I16)</f>
         <v>1.2314558524297641</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
@@ -4946,11 +4942,11 @@
       <c r="D24" s="11"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
@@ -4994,7 +4990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
@@ -5004,18 +5000,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="E1" s="20" t="s">
+      <c r="C1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="H1" s="20" t="s">
+      <c r="F1" s="26"/>
+      <c r="H1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="20"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -5261,29 +5257,29 @@
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="20">
         <f>AVERAGE(B3:B11)</f>
         <v>3.5555555555555554</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="20">
         <f>AVERAGE(C3:C11)</f>
         <v>1.8888888888888888</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="22">
+      <c r="D18" s="23"/>
+      <c r="E18" s="20">
         <f>AVERAGE(E3:E11)</f>
         <v>3</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="20">
         <f>AVERAGE(F3:F11)</f>
         <v>3.8888888888888888</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="22">
+      <c r="G18" s="23"/>
+      <c r="H18" s="20">
         <f>AVERAGE(H3:H16)</f>
         <v>3</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="20">
         <f>AVERAGE(I3:I16)</f>
         <v>3.3571428571428572</v>
       </c>
@@ -5292,39 +5288,39 @@
       <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="24">
         <f>_xlfn.STDEV.S(B3:B11)</f>
         <v>1.2360330811826108</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="24">
         <f>_xlfn.STDEV.S(C3:C11)</f>
         <v>1.2692955176439846</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="26">
+      <c r="D19" s="25"/>
+      <c r="E19" s="24">
         <f>_xlfn.STDEV.S(E3:E11)</f>
         <v>1.4142135623730951</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="24">
         <f>_xlfn.STDEV.S(F3:F11)</f>
         <v>1.0540925533894596</v>
       </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="26">
+      <c r="G19" s="25"/>
+      <c r="H19" s="24">
         <f>_xlfn.STDEV.S(H3:H16)</f>
         <v>1.1766968108291043</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="24">
         <f t="shared" ref="I19" si="0">_xlfn.STDEV.S(I3:I16)</f>
         <v>1.1507283885330304</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
@@ -5357,11 +5353,11 @@
       <c r="C24" s="11"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
@@ -5405,25 +5401,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B18" sqref="B18:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="E1" s="20" t="s">
+      <c r="C1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="H1" s="20" t="s">
+      <c r="F1" s="26"/>
+      <c r="H1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="20"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -5669,29 +5665,29 @@
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="20">
         <f>AVERAGE(B3:B11)</f>
         <v>4.4444444444444446</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="20">
         <f>AVERAGE(C3:C11)</f>
         <v>1.7777777777777777</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="22">
+      <c r="D18" s="21"/>
+      <c r="E18" s="20">
         <f>AVERAGE(E3:E11)</f>
         <v>1.7777777777777777</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="20">
         <f>AVERAGE(F3:F11)</f>
         <v>4</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="22">
+      <c r="G18" s="21"/>
+      <c r="H18" s="20">
         <f t="shared" ref="H18:I18" si="0">AVERAGE(H3:H16)</f>
         <v>3.4285714285714284</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="20">
         <f t="shared" si="0"/>
         <v>3.2857142857142856</v>
       </c>
@@ -5700,39 +5696,39 @@
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="22">
         <f>_xlfn.STDEV.S(B3:B11)</f>
         <v>0.72648315725677948</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="22">
         <f>_xlfn.STDEV.S(C3:C11)</f>
         <v>0.66666666666666685</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24">
+      <c r="D19" s="21"/>
+      <c r="E19" s="22">
         <f>_xlfn.STDEV.S(E3:E11)</f>
         <v>0.66666666666666685</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="22">
         <f>_xlfn.STDEV.S(F3:F11)</f>
         <v>0.8660254037844386</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24">
+      <c r="G19" s="21"/>
+      <c r="H19" s="22">
         <f t="shared" ref="H19:I19" si="1">_xlfn.STDEV.S(H3:H16)</f>
         <v>1.1578684470436784</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="22">
         <f t="shared" si="1"/>
         <v>1.3259870882635918</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
@@ -5765,11 +5761,11 @@
       <c r="C24" s="11"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
